--- a/Chonqqing Power Grid/data-output/技改合并删除增加电商等14-18-金额.xlsx
+++ b/Chonqqing Power Grid/data-output/技改合并删除增加电商等14-18-金额.xlsx
@@ -1998,10 +1998,10 @@
         <v>0</v>
       </c>
       <c r="E62">
-        <v>67998.52799999996</v>
+        <v>1416.636</v>
       </c>
       <c r="F62">
-        <v>13406.56</v>
+        <v>837.91</v>
       </c>
       <c r="G62">
         <v>0</v>
